--- a/biology/Médecine/1224_en_santé_et_médecine/1224_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1224_en_santé_et_médecine/1224_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1224_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1224_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1224 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1224_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1224_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,18 +523,20 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>17 septembre : stigmatisation supposée de saint François d'Assise sur le mont Alverne[1],[2].
-Fondation, dans la paroisse Saint-Gervais et Saint-Protais de Venise, de la léproserie San Lazzaro dei Mendicanti (« Saint-Lazare des Mendiants »), qui sera transférée sur l'île Saint-Lazare en 1262[3].
-Fondation d'une commanderie-hôpital de pèlerins à Écuélin en Hainaut par les frères hospitaliers[4].
-Fondation de la léproserie du prieuré St. James à Bridgnorth dans le Shropshire en Angleterre[5].
-Fondation de l'hôpital de Selmec en Hongrie, voué à l'origine aux soins des mineurs blessés[6].
-Fondation de l'université de Naples, où la médecine est enseignée dès l'origine[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>17 septembre : stigmatisation supposée de saint François d'Assise sur le mont Alverne,.
+Fondation, dans la paroisse Saint-Gervais et Saint-Protais de Venise, de la léproserie San Lazzaro dei Mendicanti (« Saint-Lazare des Mendiants »), qui sera transférée sur l'île Saint-Lazare en 1262.
+Fondation d'une commanderie-hôpital de pèlerins à Écuélin en Hainaut par les frères hospitaliers.
+Fondation de la léproserie du prieuré St. James à Bridgnorth dans le Shropshire en Angleterre.
+Fondation de l'hôpital de Selmec en Hongrie, voué à l'origine aux soins des mineurs blessés.
+Fondation de l'université de Naples, où la médecine est enseignée dès l'origine.
 Avant 1224
-Fondation par William de Bek à Billingford (en) dans le Norfolk en  Angleterre, sur la route de Norwich à Walsingham, d'un hôpital[8] placé sous le patronage de saint Thomas et saint Paul et destiné à l'accueil de treize pauvres voyageurs[9].
-Fondation de l'hôpital St. Mary of the Poor Priests (« Sainte-Marie des Pauvres-Prêtres ») de Canterbury dans le Kent en Angleterre par l'archidiacre Simon Langton[10].
-1224-1226 : fondation par John Byseth d'une maison des lépreux (domus leprosorum) dépendante de la paroisse Saint-Pierre de Rathven dans le comté de Moray en Écosse[11].</t>
+Fondation par William de Bek à Billingford (en) dans le Norfolk en  Angleterre, sur la route de Norwich à Walsingham, d'un hôpital placé sous le patronage de saint Thomas et saint Paul et destiné à l'accueil de treize pauvres voyageurs.
+Fondation de l'hôpital St. Mary of the Poor Priests (« Sainte-Marie des Pauvres-Prêtres ») de Canterbury dans le Kent en Angleterre par l'archidiacre Simon Langton.
+1224-1226 : fondation par John Byseth d'une maison des lépreux (domus leprosorum) dépendante de la paroisse Saint-Pierre de Rathven dans le comté de Moray en Écosse.</t>
         </is>
       </c>
     </row>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1224_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1224_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,9 +564,11 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fl. Nicolas, Pierre et Raoul, barbiers à La Rochelle, en Aunis[12]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fl. Nicolas, Pierre et Raoul, barbiers à La Rochelle, en Aunis</t>
         </is>
       </c>
     </row>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1224_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1224_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,10 +596,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Vers 1224 : Gilles de Corbeil (né vers 1140), médecin et anatomiste français, médecin de Philippe Auguste[13].
-1202 ou 1224[14] : Aboul Fadl El Mohandes (né vers 1132 ?), astronome et médecin arabe[15].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vers 1224 : Gilles de Corbeil (né vers 1140), médecin et anatomiste français, médecin de Philippe Auguste.
+1202 ou 1224 : Aboul Fadl El Mohandes (né vers 1132 ?), astronome et médecin arabe.</t>
         </is>
       </c>
     </row>
